--- a/bioinfo-m2/Results/Organelles/Land Plants/Total_plastid.xlsx
+++ b/bioinfo-m2/Results/Organelles/Land Plants/Total_plastid.xlsx
@@ -32,7 +32,7 @@
     <t>Modification date</t>
   </si>
   <si>
-    <t>14-Dec-2017</t>
+    <t>19-Dec-2017</t>
   </si>
   <si>
     <t>BioProject</t>
@@ -480,31 +480,31 @@
         <v>18</v>
       </c>
       <c r="B2" t="n" s="6">
-        <v>155742.0</v>
+        <v>155964.0</v>
       </c>
       <c r="C2" t="n" s="7">
-        <v>4.159570106712142</v>
+        <v>4.1592363159541135</v>
       </c>
       <c r="D2" t="n" s="6">
-        <v>141784.0</v>
+        <v>141973.0</v>
       </c>
       <c r="E2" t="n" s="7">
-        <v>3.7867786981679594</v>
+        <v>3.786125371784215</v>
       </c>
       <c r="F2" t="n" s="6">
-        <v>139796.0</v>
+        <v>139995.0</v>
       </c>
       <c r="G2" t="n" s="7">
-        <v>3.7336830311536424</v>
+        <v>3.7333762153573646</v>
       </c>
       <c r="H2" t="n" s="6">
-        <v>7943.0</v>
+        <v>7957.0</v>
       </c>
       <c r="I2" t="n" s="6">
-        <v>5136.0</v>
+        <v>5144.0</v>
       </c>
       <c r="J2" t="n" s="6">
-        <v>4632.0</v>
+        <v>4639.0</v>
       </c>
       <c r="M2" t="s" s="3">
         <v>0</v>
@@ -518,31 +518,31 @@
         <v>19</v>
       </c>
       <c r="B3" t="n" s="8">
-        <v>40636.0</v>
+        <v>40705.0</v>
       </c>
       <c r="C3" t="n" s="9">
-        <v>1.0853096201175958</v>
+        <v>1.0855179031116935</v>
       </c>
       <c r="D3" t="n" s="8">
-        <v>60267.0</v>
+        <v>60354.0</v>
       </c>
       <c r="E3" t="n" s="9">
-        <v>1.6096159778429753</v>
+        <v>1.609515969153744</v>
       </c>
       <c r="F3" t="n" s="8">
-        <v>68709.0</v>
+        <v>68817.0</v>
       </c>
       <c r="G3" t="n" s="9">
-        <v>1.8350856060798277</v>
+        <v>1.8352066217525467</v>
       </c>
       <c r="H3" t="n" s="10">
-        <v>2274.0</v>
+        <v>2277.0</v>
       </c>
       <c r="I3" t="n" s="10">
-        <v>5125.0</v>
+        <v>5134.0</v>
       </c>
       <c r="J3" t="n" s="10">
-        <v>7985.0</v>
+        <v>8000.0</v>
       </c>
     </row>
     <row r="4">
@@ -550,37 +550,37 @@
         <v>20</v>
       </c>
       <c r="B4" t="n" s="6">
-        <v>63617.0</v>
+        <v>63719.0</v>
       </c>
       <c r="C4" t="n" s="7">
-        <v>1.6990880525401388</v>
+        <v>1.6992535381003315</v>
       </c>
       <c r="D4" t="n" s="6">
-        <v>108469.0</v>
+        <v>108594.0</v>
       </c>
       <c r="E4" t="n" s="7">
-        <v>2.8969989463661654</v>
+        <v>2.8959766900997725</v>
       </c>
       <c r="F4" t="n" s="6">
-        <v>58538.0</v>
+        <v>58620.0</v>
       </c>
       <c r="G4" t="n" s="7">
-        <v>1.563437704066439</v>
+        <v>1.5632737865227238</v>
       </c>
       <c r="H4" t="n" s="6">
-        <v>3766.0</v>
+        <v>3774.0</v>
       </c>
       <c r="I4" t="n" s="6">
-        <v>8534.0</v>
+        <v>8547.0</v>
       </c>
       <c r="J4" t="n" s="6">
-        <v>3020.0</v>
+        <v>3025.0</v>
       </c>
       <c r="M4" t="s" s="3">
         <v>2</v>
       </c>
       <c r="N4" t="n" s="1">
-        <v>9363803.0</v>
+        <v>9377903.0</v>
       </c>
     </row>
     <row r="5">
@@ -588,31 +588,31 @@
         <v>21</v>
       </c>
       <c r="B5" t="n" s="8">
-        <v>132710.0</v>
+        <v>132924.0</v>
       </c>
       <c r="C5" t="n" s="9">
-        <v>3.5444295621076414</v>
+        <v>3.5448073149052637</v>
       </c>
       <c r="D5" t="n" s="8">
-        <v>89812.0</v>
+        <v>89959.0</v>
       </c>
       <c r="E5" t="n" s="9">
-        <v>2.398706260507961</v>
+        <v>2.399019900405966</v>
       </c>
       <c r="F5" t="n" s="8">
-        <v>121247.0</v>
+        <v>121422.0</v>
       </c>
       <c r="G5" t="n" s="9">
-        <v>3.2382748181513468</v>
+        <v>3.2380728370379077</v>
       </c>
       <c r="H5" t="n" s="10">
-        <v>5768.0</v>
+        <v>5779.0</v>
       </c>
       <c r="I5" t="n" s="10">
-        <v>2263.0</v>
+        <v>2266.0</v>
       </c>
       <c r="J5" t="n" s="10">
-        <v>7268.0</v>
+        <v>7278.0</v>
       </c>
     </row>
     <row r="6">
@@ -620,37 +620,37 @@
         <v>22</v>
       </c>
       <c r="B6" t="n" s="6">
-        <v>54944.0</v>
+        <v>55027.0</v>
       </c>
       <c r="C6" t="n" s="7">
-        <v>1.467448857361482</v>
+        <v>1.4674559305865904</v>
       </c>
       <c r="D6" t="n" s="6">
-        <v>44000.0</v>
+        <v>44069.0</v>
       </c>
       <c r="E6" t="n" s="7">
-        <v>1.1751556079627477</v>
+        <v>1.1752288041328884</v>
       </c>
       <c r="F6" t="n" s="6">
-        <v>55500.0</v>
+        <v>55588.0</v>
       </c>
       <c r="G6" t="n" s="7">
-        <v>1.482298550953011</v>
+        <v>1.4824166367319205</v>
       </c>
       <c r="H6" t="n" s="6">
-        <v>7086.0</v>
+        <v>7098.0</v>
       </c>
       <c r="I6" t="n" s="6">
-        <v>3608.0</v>
+        <v>3613.0</v>
       </c>
       <c r="J6" t="n" s="6">
-        <v>6296.0</v>
+        <v>6308.0</v>
       </c>
       <c r="M6" t="s" s="3">
         <v>3</v>
       </c>
       <c r="N6" t="n" s="1">
-        <v>40636.0</v>
+        <v>40705.0</v>
       </c>
     </row>
     <row r="7">
@@ -658,31 +658,31 @@
         <v>23</v>
       </c>
       <c r="B7" t="n" s="8">
-        <v>32716.0</v>
+        <v>32768.0</v>
       </c>
       <c r="C7" t="n" s="9">
-        <v>0.873781610684301</v>
+        <v>0.8738545792694749</v>
       </c>
       <c r="D7" t="n" s="8">
-        <v>24208.0</v>
+        <v>24242.0</v>
       </c>
       <c r="E7" t="n" s="9">
-        <v>0.6465492490355044</v>
+        <v>0.6464838473709292</v>
       </c>
       <c r="F7" t="n" s="8">
-        <v>43316.0</v>
+        <v>43374.0</v>
       </c>
       <c r="G7" t="n" s="9">
-        <v>1.1568872798753267</v>
+        <v>1.1566945959849304</v>
       </c>
       <c r="H7" t="n" s="10">
-        <v>5543.0</v>
+        <v>5553.0</v>
       </c>
       <c r="I7" t="n" s="10">
-        <v>2926.0</v>
+        <v>2930.0</v>
       </c>
       <c r="J7" t="n" s="10">
-        <v>7732.0</v>
+        <v>7740.0</v>
       </c>
     </row>
     <row r="8">
@@ -690,31 +690,31 @@
         <v>24</v>
       </c>
       <c r="B8" t="n" s="6">
-        <v>23317.0</v>
+        <v>23355.0</v>
       </c>
       <c r="C8" t="n" s="7">
-        <v>0.6227523479742587</v>
+        <v>0.6228293975475643</v>
       </c>
       <c r="D8" t="n" s="6">
-        <v>28576.0</v>
+        <v>28619.0</v>
       </c>
       <c r="E8" t="n" s="7">
-        <v>0.7632101512078062</v>
+        <v>0.763209356814975</v>
       </c>
       <c r="F8" t="n" s="6">
-        <v>33831.0</v>
+        <v>33880.0</v>
       </c>
       <c r="G8" t="n" s="7">
-        <v>0.903561122113357</v>
+        <v>0.9035093123062076</v>
       </c>
       <c r="H8" t="n" s="6">
-        <v>5099.0</v>
+        <v>5107.0</v>
       </c>
       <c r="I8" t="n" s="6">
-        <v>5663.0</v>
+        <v>5670.0</v>
       </c>
       <c r="J8" t="n" s="6">
-        <v>7819.0</v>
+        <v>7831.0</v>
       </c>
       <c r="M8" t="s" s="3">
         <v>4</v>
@@ -728,31 +728,31 @@
         <v>25</v>
       </c>
       <c r="B9" t="n" s="8">
-        <v>80541.0</v>
+        <v>80656.0</v>
       </c>
       <c r="C9" t="n" s="9">
-        <v>2.15109563229381</v>
+        <v>2.150928190477257</v>
       </c>
       <c r="D9" t="n" s="8">
-        <v>25828.0</v>
+        <v>25867.0</v>
       </c>
       <c r="E9" t="n" s="9">
-        <v>0.6898163418741329</v>
+        <v>0.6898192261341402</v>
       </c>
       <c r="F9" t="n" s="8">
-        <v>42472.0</v>
+        <v>42524.0</v>
       </c>
       <c r="G9" t="n" s="9">
-        <v>1.1343456586680412</v>
+        <v>1.1340268594010972</v>
       </c>
       <c r="H9" t="n" s="10">
-        <v>10698.0</v>
+        <v>10716.0</v>
       </c>
       <c r="I9" t="n" s="10">
-        <v>782.0</v>
+        <v>783.0</v>
       </c>
       <c r="J9" t="n" s="10">
-        <v>2643.0</v>
+        <v>2648.0</v>
       </c>
     </row>
     <row r="10">
@@ -760,31 +760,31 @@
         <v>26</v>
       </c>
       <c r="B10" t="n" s="6">
-        <v>66315.0</v>
+        <v>66413.0</v>
       </c>
       <c r="C10" t="n" s="7">
-        <v>1.7711464577738547</v>
+        <v>1.7710969291083871</v>
       </c>
       <c r="D10" t="n" s="6">
-        <v>63988.0</v>
+        <v>64097.0</v>
       </c>
       <c r="E10" t="n" s="7">
-        <v>1.7089967509618247</v>
+        <v>1.7093340138987894</v>
       </c>
       <c r="F10" t="n" s="6">
-        <v>119371.0</v>
+        <v>119519.0</v>
       </c>
       <c r="G10" t="n" s="7">
-        <v>3.188170456320935</v>
+        <v>3.1873237750155137</v>
       </c>
       <c r="H10" t="n" s="6">
-        <v>3916.0</v>
+        <v>3924.0</v>
       </c>
       <c r="I10" t="n" s="6">
-        <v>3278.0</v>
+        <v>3284.0</v>
       </c>
       <c r="J10" t="n" s="6">
-        <v>9118.0</v>
+        <v>9129.0</v>
       </c>
       <c r="M10" t="s" s="3">
         <v>5</v>
@@ -798,31 +798,31 @@
         <v>27</v>
       </c>
       <c r="B11" t="n" s="8">
-        <v>19986.0</v>
+        <v>20011.0</v>
       </c>
       <c r="C11" t="n" s="9">
-        <v>0.5337877268350789</v>
+        <v>0.5336518550342242</v>
       </c>
       <c r="D11" t="n" s="8">
-        <v>21190.0</v>
+        <v>21216.0</v>
       </c>
       <c r="E11" t="n" s="9">
-        <v>0.5659442575620596</v>
+        <v>0.5657867051324822</v>
       </c>
       <c r="F11" t="n" s="8">
-        <v>69514.0</v>
+        <v>69595.0</v>
       </c>
       <c r="G11" t="n" s="9">
-        <v>1.8565856120891462</v>
+        <v>1.8559542677081025</v>
       </c>
       <c r="H11" t="n" s="10">
-        <v>2517.0</v>
+        <v>2520.0</v>
       </c>
       <c r="I11" t="n" s="10">
-        <v>3138.0</v>
+        <v>3142.0</v>
       </c>
       <c r="J11" t="n" s="10">
-        <v>11288.0</v>
+        <v>11307.0</v>
       </c>
     </row>
     <row r="12">
@@ -830,31 +830,31 @@
         <v>28</v>
       </c>
       <c r="B12" t="n" s="6">
-        <v>25287.0</v>
+        <v>25324.0</v>
       </c>
       <c r="C12" t="n" s="7">
-        <v>0.6753672695125909</v>
+        <v>0.6753385426458796</v>
       </c>
       <c r="D12" t="n" s="6">
-        <v>45380.0</v>
+        <v>45435.0</v>
       </c>
       <c r="E12" t="n" s="7">
-        <v>1.2120127611215792</v>
+        <v>1.2116571902193782</v>
       </c>
       <c r="F12" t="n" s="6">
-        <v>73566.0</v>
+        <v>73671.0</v>
       </c>
       <c r="G12" t="n" s="7">
-        <v>1.9648067603497157</v>
+        <v>1.9646527316089317</v>
       </c>
       <c r="H12" t="n" s="6">
-        <v>2681.0</v>
+        <v>2685.0</v>
       </c>
       <c r="I12" t="n" s="6">
-        <v>4346.0</v>
+        <v>4350.0</v>
       </c>
       <c r="J12" t="n" s="6">
-        <v>9880.0</v>
+        <v>9896.0</v>
       </c>
       <c r="M12" t="s" s="3">
         <v>7</v>
@@ -868,31 +868,31 @@
         <v>29</v>
       </c>
       <c r="B13" t="n" s="8">
-        <v>59406.0</v>
+        <v>59499.0</v>
       </c>
       <c r="C13" t="n" s="9">
-        <v>1.5866203192417043</v>
+        <v>1.5867148929429469</v>
       </c>
       <c r="D13" t="n" s="8">
-        <v>24778.0</v>
+        <v>24816.0</v>
       </c>
       <c r="E13" t="n" s="9">
-        <v>0.6617728557750219</v>
+        <v>0.661791236546365</v>
       </c>
       <c r="F13" t="n" s="8">
-        <v>61921.0</v>
+        <v>62005.0</v>
       </c>
       <c r="G13" t="n" s="9">
-        <v>1.6537911454695748</v>
+        <v>1.6535447139771664</v>
       </c>
       <c r="H13" t="n" s="10">
-        <v>6341.0</v>
+        <v>6353.0</v>
       </c>
       <c r="I13" t="n" s="10">
-        <v>1218.0</v>
+        <v>1221.0</v>
       </c>
       <c r="J13" t="n" s="10">
-        <v>8403.0</v>
+        <v>8416.0</v>
       </c>
     </row>
     <row r="14">
@@ -900,31 +900,31 @@
         <v>30</v>
       </c>
       <c r="B14" t="n" s="6">
-        <v>91921.0</v>
+        <v>92075.0</v>
       </c>
       <c r="C14" t="n" s="7">
-        <v>2.4550336054441755</v>
+        <v>2.4554492305370146</v>
       </c>
       <c r="D14" t="n" s="6">
-        <v>114561.0</v>
+        <v>114737.0</v>
       </c>
       <c r="E14" t="n" s="7">
-        <v>3.0597045819050073</v>
+        <v>3.0597977557874065</v>
       </c>
       <c r="F14" t="n" s="6">
-        <v>44498.0</v>
+        <v>44573.0</v>
       </c>
       <c r="G14" t="n" s="7">
-        <v>1.188456232798326</v>
+        <v>1.188669438530832</v>
       </c>
       <c r="H14" t="n" s="6">
-        <v>6044.0</v>
+        <v>6053.0</v>
       </c>
       <c r="I14" t="n" s="6">
-        <v>8090.0</v>
+        <v>8103.0</v>
       </c>
       <c r="J14" t="n" s="6">
-        <v>1750.0</v>
+        <v>1754.0</v>
       </c>
     </row>
     <row r="15">
@@ -932,31 +932,31 @@
         <v>31</v>
       </c>
       <c r="B15" t="n" s="8">
-        <v>61389.0</v>
+        <v>61492.0</v>
       </c>
       <c r="C15" t="n" s="9">
-        <v>1.6395824458460253</v>
+        <v>1.639864068250688</v>
       </c>
       <c r="D15" t="n" s="8">
-        <v>98481.0</v>
+        <v>98662.0</v>
       </c>
       <c r="E15" t="n" s="9">
-        <v>2.6302386233586215</v>
+        <v>2.631110855099027</v>
       </c>
       <c r="F15" t="n" s="8">
-        <v>67750.0</v>
+        <v>67878.0</v>
       </c>
       <c r="G15" t="n" s="9">
-        <v>1.8094725554426396</v>
+        <v>1.810165439808759</v>
       </c>
       <c r="H15" t="n" s="10">
-        <v>4656.0</v>
+        <v>4664.0</v>
       </c>
       <c r="I15" t="n" s="10">
-        <v>7320.0</v>
+        <v>7333.0</v>
       </c>
       <c r="J15" t="n" s="10">
-        <v>4514.0</v>
+        <v>4522.0</v>
       </c>
     </row>
     <row r="16">
@@ -964,31 +964,31 @@
         <v>32</v>
       </c>
       <c r="B16" t="n" s="6">
-        <v>85388.0</v>
+        <v>85528.0</v>
       </c>
       <c r="C16" t="n" s="7">
-        <v>2.2805497057437067</v>
+        <v>2.2808543229907117</v>
       </c>
       <c r="D16" t="n" s="6">
-        <v>103458.0</v>
+        <v>103615.0</v>
       </c>
       <c r="E16" t="n" s="7">
-        <v>2.7631647474684073</v>
+        <v>2.763197089569294</v>
       </c>
       <c r="F16" t="n" s="6">
-        <v>32937.0</v>
+        <v>32993.0</v>
       </c>
       <c r="G16" t="n" s="7">
-        <v>0.879684096806114</v>
+        <v>0.8798548624828425</v>
       </c>
       <c r="H16" t="n" s="6">
-        <v>7904.0</v>
+        <v>7918.0</v>
       </c>
       <c r="I16" t="n" s="6">
-        <v>5839.0</v>
+        <v>5846.0</v>
       </c>
       <c r="J16" t="n" s="6">
-        <v>1133.0</v>
+        <v>1134.0</v>
       </c>
     </row>
     <row r="17">
@@ -996,31 +996,31 @@
         <v>33</v>
       </c>
       <c r="B17" t="n" s="8">
-        <v>149523.0</v>
+        <v>149745.0</v>
       </c>
       <c r="C17" t="n" s="9">
-        <v>3.993472544759407</v>
+        <v>3.9933884879366306</v>
       </c>
       <c r="D17" t="n" s="8">
-        <v>106202.0</v>
+        <v>106365.0</v>
       </c>
       <c r="E17" t="n" s="9">
-        <v>2.8364517244740846</v>
+        <v>2.8365338843993437</v>
       </c>
       <c r="F17" t="n" s="8">
-        <v>128869.0</v>
+        <v>129074.0</v>
       </c>
       <c r="G17" t="n" s="9">
-        <v>3.441843819148894</v>
+        <v>3.4421358021431945</v>
       </c>
       <c r="H17" t="n" s="10">
-        <v>8156.0</v>
+        <v>8168.0</v>
       </c>
       <c r="I17" t="n" s="10">
-        <v>1624.0</v>
+        <v>1626.0</v>
       </c>
       <c r="J17" t="n" s="10">
-        <v>5423.0</v>
+        <v>5432.0</v>
       </c>
     </row>
     <row r="18">
@@ -1028,31 +1028,31 @@
         <v>34</v>
       </c>
       <c r="B18" t="n" s="6">
-        <v>96493.0</v>
+        <v>96630.0</v>
       </c>
       <c r="C18" t="n" s="7">
-        <v>2.5771429563443045</v>
+        <v>2.576921630700969</v>
       </c>
       <c r="D18" t="n" s="6">
-        <v>74803.0</v>
+        <v>74918.0</v>
       </c>
       <c r="E18" t="n" s="7">
-        <v>1.9978446577826683</v>
+        <v>1.997907634573685</v>
       </c>
       <c r="F18" t="n" s="6">
-        <v>68119.0</v>
+        <v>68238.0</v>
       </c>
       <c r="G18" t="n" s="7">
-        <v>1.8193278377003272</v>
+        <v>1.819765892950147</v>
       </c>
       <c r="H18" t="n" s="6">
-        <v>6515.0</v>
+        <v>6523.0</v>
       </c>
       <c r="I18" t="n" s="6">
-        <v>5809.0</v>
+        <v>5818.0</v>
       </c>
       <c r="J18" t="n" s="6">
-        <v>3278.0</v>
+        <v>3283.0</v>
       </c>
     </row>
     <row r="19">
@@ -1060,31 +1060,31 @@
         <v>35</v>
       </c>
       <c r="B19" t="n" s="8">
-        <v>18970.0</v>
+        <v>18996.0</v>
       </c>
       <c r="C19" t="n" s="9">
-        <v>0.5066523155239392</v>
+        <v>0.506583910760588</v>
       </c>
       <c r="D19" t="n" s="8">
-        <v>31076.0</v>
+        <v>31126.0</v>
       </c>
       <c r="E19" t="n" s="9">
-        <v>0.8299803562056896</v>
+        <v>0.8300658457745871</v>
       </c>
       <c r="F19" t="n" s="8">
-        <v>24531.0</v>
+        <v>24568.0</v>
       </c>
       <c r="G19" t="n" s="9">
-        <v>0.6551759595212309</v>
+        <v>0.6551775910489642</v>
       </c>
       <c r="H19" t="n" s="10">
-        <v>5183.0</v>
+        <v>5191.0</v>
       </c>
       <c r="I19" t="n" s="10">
-        <v>8566.0</v>
+        <v>8580.0</v>
       </c>
       <c r="J19" t="n" s="10">
-        <v>6862.0</v>
+        <v>6873.0</v>
       </c>
     </row>
     <row r="20">
@@ -1092,31 +1092,31 @@
         <v>36</v>
       </c>
       <c r="B20" t="n" s="6">
-        <v>32034.0</v>
+        <v>32080.0</v>
       </c>
       <c r="C20" t="n" s="7">
-        <v>0.8555666987608784</v>
+        <v>0.8555070465992661</v>
       </c>
       <c r="D20" t="n" s="6">
-        <v>62300.0</v>
+        <v>62399.0</v>
       </c>
       <c r="E20" t="n" s="7">
-        <v>1.6639135085472538</v>
+        <v>1.664051876581908</v>
       </c>
       <c r="F20" t="n" s="6">
-        <v>20998.0</v>
+        <v>21028.0</v>
       </c>
       <c r="G20" t="n" s="7">
-        <v>0.5608163058182222</v>
+        <v>0.5607731351586461</v>
       </c>
       <c r="H20" t="n" s="6">
-        <v>3763.0</v>
+        <v>3766.0</v>
       </c>
       <c r="I20" t="n" s="6">
-        <v>9813.0</v>
+        <v>9828.0</v>
       </c>
       <c r="J20" t="n" s="6">
-        <v>3393.0</v>
+        <v>3398.0</v>
       </c>
     </row>
     <row r="21">
@@ -1124,31 +1124,31 @@
         <v>37</v>
       </c>
       <c r="B21" t="n" s="8">
-        <v>60291.0</v>
+        <v>60394.0</v>
       </c>
       <c r="C21" t="n" s="9">
-        <v>1.6102569718109547</v>
+        <v>1.6105826861694539</v>
       </c>
       <c r="D21" t="n" s="8">
-        <v>43516.0</v>
+        <v>43592.0</v>
       </c>
       <c r="E21" t="n" s="9">
-        <v>1.1622288962751572</v>
+        <v>1.162508203720549</v>
       </c>
       <c r="F21" t="n" s="8">
-        <v>55848.0</v>
+        <v>55944.0</v>
       </c>
       <c r="G21" t="n" s="9">
-        <v>1.4915929634887166</v>
+        <v>1.4919104181717375</v>
       </c>
       <c r="H21" t="n" s="10">
-        <v>6427.0</v>
+        <v>6436.0</v>
       </c>
       <c r="I21" t="n" s="10">
-        <v>4754.0</v>
+        <v>4763.0</v>
       </c>
       <c r="J21" t="n" s="10">
-        <v>5305.0</v>
+        <v>5315.0</v>
       </c>
     </row>
     <row r="22">
@@ -1156,31 +1156,31 @@
         <v>38</v>
       </c>
       <c r="B22" t="n" s="6">
-        <v>43728.0</v>
+        <v>43799.0</v>
       </c>
       <c r="C22" t="n" s="7">
-        <v>1.1678910096589779</v>
+        <v>1.168028464276847</v>
       </c>
       <c r="D22" t="n" s="6">
-        <v>44549.0</v>
+        <v>44625.0</v>
       </c>
       <c r="E22" t="n" s="7">
-        <v>1.1898183449802828</v>
+        <v>1.1900561706512547</v>
       </c>
       <c r="F22" t="n" s="6">
-        <v>31823.0</v>
+        <v>31871.0</v>
       </c>
       <c r="G22" t="n" s="7">
-        <v>0.8499312934590572</v>
+        <v>0.8499334501921825</v>
       </c>
       <c r="H22" t="n" s="6">
-        <v>7383.0</v>
+        <v>7397.0</v>
       </c>
       <c r="I22" t="n" s="6">
-        <v>6432.0</v>
+        <v>6441.0</v>
       </c>
       <c r="J22" t="n" s="6">
-        <v>3763.0</v>
+        <v>3768.0</v>
       </c>
     </row>
     <row r="23">
@@ -1188,31 +1188,31 @@
         <v>39</v>
       </c>
       <c r="B23" t="n" s="8">
-        <v>33774.0</v>
+        <v>33820.0</v>
       </c>
       <c r="C23" t="n" s="9">
-        <v>0.9020387614394054</v>
+        <v>0.9019092367826429</v>
       </c>
       <c r="D23" t="n" s="8">
-        <v>28631.0</v>
+        <v>28671.0</v>
       </c>
       <c r="E23" t="n" s="9">
-        <v>0.7646790957177596</v>
+        <v>0.7645960889353978</v>
       </c>
       <c r="F23" t="n" s="8">
-        <v>25648.0</v>
+        <v>25691.0</v>
       </c>
       <c r="G23" t="n" s="9">
-        <v>0.6850088871142852</v>
+        <v>0.6851256712650171</v>
       </c>
       <c r="H23" t="n" s="10">
-        <v>8568.0</v>
+        <v>8584.0</v>
       </c>
       <c r="I23" t="n" s="10">
-        <v>6799.0</v>
+        <v>6809.0</v>
       </c>
       <c r="J23" t="n" s="10">
-        <v>5503.0</v>
+        <v>5517.0</v>
       </c>
     </row>
     <row r="24">
@@ -1220,31 +1220,31 @@
         <v>40</v>
       </c>
       <c r="B24" t="n" s="6">
-        <v>22435.0</v>
+        <v>22471.0</v>
       </c>
       <c r="C24" t="n" s="7">
-        <v>0.5991958196510055</v>
+        <v>0.5992549515003774</v>
       </c>
       <c r="D24" t="n" s="6">
-        <v>42015.0</v>
+        <v>42072.0</v>
       </c>
       <c r="E24" t="n" s="7">
-        <v>1.122140065194428</v>
+        <v>1.1219729571235764</v>
       </c>
       <c r="F24" t="n" s="6">
-        <v>19082.0</v>
+        <v>19107.0</v>
       </c>
       <c r="G24" t="n" s="7">
-        <v>0.5096436207078443</v>
+        <v>0.5095440504791826</v>
       </c>
       <c r="H24" t="n" s="6">
-        <v>4605.0</v>
+        <v>4614.0</v>
       </c>
       <c r="I24" t="n" s="6">
-        <v>9589.0</v>
+        <v>9603.0</v>
       </c>
       <c r="J24" t="n" s="6">
-        <v>3735.0</v>
+        <v>3742.0</v>
       </c>
     </row>
     <row r="25">
@@ -1252,31 +1252,31 @@
         <v>41</v>
       </c>
       <c r="B25" t="n" s="8">
-        <v>61069.0</v>
+        <v>61169.0</v>
       </c>
       <c r="C25" t="n" s="9">
-        <v>1.631035859606296</v>
+        <v>1.6312503283488315</v>
       </c>
       <c r="D25" t="n" s="8">
-        <v>30897.0</v>
+        <v>30948.0</v>
       </c>
       <c r="E25" t="n" s="9">
-        <v>0.8251996095278411</v>
+        <v>0.8253189550546787</v>
       </c>
       <c r="F25" t="n" s="8">
-        <v>33392.0</v>
+        <v>33442.0</v>
       </c>
       <c r="G25" t="n" s="9">
-        <v>0.8918362741157287</v>
+        <v>0.8918287609841851</v>
       </c>
       <c r="H25" t="n" s="10">
-        <v>9852.0</v>
+        <v>9868.0</v>
       </c>
       <c r="I25" t="n" s="10">
-        <v>3975.0</v>
+        <v>3984.0</v>
       </c>
       <c r="J25" t="n" s="10">
-        <v>4393.0</v>
+        <v>4399.0</v>
       </c>
     </row>
     <row r="26">
@@ -1284,31 +1284,31 @@
         <v>42</v>
       </c>
       <c r="B26" t="n" s="6">
-        <v>46071.0</v>
+        <v>46142.0</v>
       </c>
       <c r="C26" t="n" s="7">
-        <v>1.2304680457829942</v>
+        <v>1.2305114134720492</v>
       </c>
       <c r="D26" t="n" s="6">
-        <v>35589.0</v>
+        <v>35646.0</v>
       </c>
       <c r="E26" t="n" s="7">
-        <v>0.9505139302678687</v>
+        <v>0.9506048685497955</v>
       </c>
       <c r="F26" t="n" s="6">
-        <v>54838.0</v>
+        <v>54922.0</v>
       </c>
       <c r="G26" t="n" s="7">
-        <v>1.4646178006695716</v>
+        <v>1.464655798420352</v>
       </c>
       <c r="H26" t="n" s="6">
-        <v>6320.0</v>
+        <v>6332.0</v>
       </c>
       <c r="I26" t="n" s="6">
-        <v>4325.0</v>
+        <v>4330.0</v>
       </c>
       <c r="J26" t="n" s="6">
-        <v>7010.0</v>
+        <v>7022.0</v>
       </c>
     </row>
     <row r="27">
@@ -1316,31 +1316,31 @@
         <v>43</v>
       </c>
       <c r="B27" t="n" s="8">
-        <v>16016.0</v>
+        <v>16034.0</v>
       </c>
       <c r="C27" t="n" s="9">
-        <v>0.4277566412984401</v>
+        <v>0.42759351574727666</v>
       </c>
       <c r="D27" t="n" s="8">
-        <v>13899.0</v>
+        <v>13920.0</v>
       </c>
       <c r="E27" t="n" s="9">
-        <v>0.37121563170623245</v>
+        <v>0.3712175214670132</v>
       </c>
       <c r="F27" t="n" s="8">
-        <v>20168.0</v>
+        <v>20189.0</v>
       </c>
       <c r="G27" t="n" s="9">
-        <v>0.5386485977589248</v>
+        <v>0.5383987457541329</v>
       </c>
       <c r="H27" t="n" s="10">
-        <v>6230.0</v>
+        <v>6241.0</v>
       </c>
       <c r="I27" t="n" s="10">
-        <v>6357.0</v>
+        <v>6371.0</v>
       </c>
       <c r="J27" t="n" s="10">
-        <v>7951.0</v>
+        <v>7962.0</v>
       </c>
     </row>
     <row r="28">
@@ -1348,31 +1348,31 @@
         <v>44</v>
       </c>
       <c r="B28" t="n" s="6">
-        <v>16821.0</v>
+        <v>16844.0</v>
       </c>
       <c r="C28" t="n" s="7">
-        <v>0.44925664730775855</v>
+        <v>0.4491945353154002</v>
       </c>
       <c r="D28" t="n" s="6">
-        <v>37901.0</v>
+        <v>37957.0</v>
       </c>
       <c r="E28" t="n" s="7">
-        <v>1.0122630158499113</v>
+        <v>1.0122344441324296</v>
       </c>
       <c r="F28" t="n" s="6">
-        <v>31422.0</v>
+        <v>31468.0</v>
       </c>
       <c r="G28" t="n" s="7">
-        <v>0.8392213525773967</v>
+        <v>0.8391862762589062</v>
       </c>
       <c r="H28" t="n" s="6">
-        <v>3136.0</v>
+        <v>3140.0</v>
       </c>
       <c r="I28" t="n" s="6">
-        <v>8276.0</v>
+        <v>8292.0</v>
       </c>
       <c r="J28" t="n" s="6">
-        <v>6349.0</v>
+        <v>6358.0</v>
       </c>
     </row>
     <row r="29">
@@ -1380,31 +1380,31 @@
         <v>45</v>
       </c>
       <c r="B29" t="n" s="8">
-        <v>50010.0</v>
+        <v>50082.0</v>
       </c>
       <c r="C29" t="n" s="9">
-        <v>1.3356711807776593</v>
+        <v>1.3355830395194654</v>
       </c>
       <c r="D29" t="n" s="8">
-        <v>12518.0</v>
+        <v>12534.0</v>
       </c>
       <c r="E29" t="n" s="9">
-        <v>0.3343317704654017</v>
+        <v>0.3342557768726684</v>
       </c>
       <c r="F29" t="n" s="8">
-        <v>29412.0</v>
+        <v>29455.0</v>
       </c>
       <c r="G29" t="n" s="9">
-        <v>0.7855381077590984</v>
+        <v>0.78550374244331</v>
       </c>
       <c r="H29" t="n" s="10">
-        <v>9285.0</v>
+        <v>9300.0</v>
       </c>
       <c r="I29" t="n" s="10">
-        <v>2443.0</v>
+        <v>2448.0</v>
       </c>
       <c r="J29" t="n" s="10">
-        <v>5277.0</v>
+        <v>5286.0</v>
       </c>
     </row>
     <row r="30">
@@ -1412,31 +1412,31 @@
         <v>46</v>
       </c>
       <c r="B30" t="n" s="6">
-        <v>59133.0</v>
+        <v>59216.0</v>
       </c>
       <c r="C30" t="n" s="7">
-        <v>1.5793290128559352</v>
+        <v>1.5791678700568</v>
       </c>
       <c r="D30" t="n" s="6">
-        <v>85392.0</v>
+        <v>85536.0</v>
       </c>
       <c r="E30" t="n" s="7">
-        <v>2.280656538071703</v>
+        <v>2.2810676663938536</v>
       </c>
       <c r="F30" t="n" s="6">
-        <v>24303.0</v>
+        <v>24337.0</v>
       </c>
       <c r="G30" t="n" s="7">
-        <v>0.649086516825424</v>
+        <v>0.64901730028324</v>
       </c>
       <c r="H30" t="n" s="6">
-        <v>4446.0</v>
+        <v>4451.0</v>
       </c>
       <c r="I30" t="n" s="6">
-        <v>9222.0</v>
+        <v>9237.0</v>
       </c>
       <c r="J30" t="n" s="6">
-        <v>1324.0</v>
+        <v>1326.0</v>
       </c>
     </row>
     <row r="31">
@@ -1444,31 +1444,31 @@
         <v>47</v>
       </c>
       <c r="B31" t="n" s="8">
-        <v>28975.0</v>
+        <v>29029.0</v>
       </c>
       <c r="C31" t="n" s="9">
-        <v>0.7738666759254684</v>
+        <v>0.7741432062260005</v>
       </c>
       <c r="D31" t="n" s="8">
-        <v>63169.0</v>
+        <v>63251.0</v>
       </c>
       <c r="E31" t="n" s="9">
-        <v>1.6871228318045182</v>
+        <v>1.6867729490165266</v>
       </c>
       <c r="F31" t="n" s="8">
-        <v>25376.0</v>
+        <v>25424.0</v>
       </c>
       <c r="G31" t="n" s="9">
-        <v>0.6777442888105155</v>
+        <v>0.678005335185154</v>
       </c>
       <c r="H31" t="n" s="10">
-        <v>3714.0</v>
+        <v>3722.0</v>
       </c>
       <c r="I31" t="n" s="10">
-        <v>10942.0</v>
+        <v>10961.0</v>
       </c>
       <c r="J31" t="n" s="10">
-        <v>3160.0</v>
+        <v>3168.0</v>
       </c>
     </row>
     <row r="32">
@@ -1476,31 +1476,31 @@
         <v>48</v>
       </c>
       <c r="B32" t="n" s="6">
-        <v>25609.0</v>
+        <v>25647.0</v>
       </c>
       <c r="C32" t="n" s="7">
-        <v>0.6839672719163182</v>
+        <v>0.6839522825477362</v>
       </c>
       <c r="D32" t="n" s="6">
-        <v>66701.0</v>
+        <v>66800.0</v>
       </c>
       <c r="E32" t="n" s="7">
-        <v>1.781455777425528</v>
+        <v>1.7814174162353795</v>
       </c>
       <c r="F32" t="n" s="6">
-        <v>13593.0</v>
+        <v>13612.0</v>
       </c>
       <c r="G32" t="n" s="7">
-        <v>0.36304295861449154</v>
+        <v>0.3630038004460477</v>
       </c>
       <c r="H32" t="n" s="6">
-        <v>3329.0</v>
+        <v>3335.0</v>
       </c>
       <c r="I32" t="n" s="6">
-        <v>11307.0</v>
+        <v>11325.0</v>
       </c>
       <c r="J32" t="n" s="6">
-        <v>2525.0</v>
+        <v>2529.0</v>
       </c>
     </row>
     <row r="33">
@@ -1508,31 +1508,31 @@
         <v>49</v>
       </c>
       <c r="B33" t="n" s="8">
-        <v>86681.0</v>
+        <v>86813.0</v>
       </c>
       <c r="C33" t="n" s="9">
-        <v>2.315083255768612</v>
+        <v>2.315122607120389</v>
       </c>
       <c r="D33" t="n" s="8">
-        <v>88464.0</v>
+        <v>88592.0</v>
       </c>
       <c r="E33" t="n" s="9">
-        <v>2.3627037659731025</v>
+        <v>2.362564846394083</v>
       </c>
       <c r="F33" t="n" s="8">
-        <v>64510.0</v>
+        <v>64618.0</v>
       </c>
       <c r="G33" t="n" s="9">
-        <v>1.7229383697653828</v>
+        <v>1.7232280030284097</v>
       </c>
       <c r="H33" t="n" s="10">
-        <v>5827.0</v>
+        <v>5836.0</v>
       </c>
       <c r="I33" t="n" s="10">
-        <v>7814.0</v>
+        <v>7825.0</v>
       </c>
       <c r="J33" t="n" s="10">
-        <v>2657.0</v>
+        <v>2661.0</v>
       </c>
     </row>
     <row r="34">
@@ -1540,31 +1540,31 @@
         <v>50</v>
       </c>
       <c r="B34" t="n" s="6">
-        <v>148096.0</v>
+        <v>148285.0</v>
       </c>
       <c r="C34" t="n" s="7">
-        <v>3.955360111746615</v>
+        <v>3.9544533168632228</v>
       </c>
       <c r="D34" t="n" s="6">
-        <v>78560.0</v>
+        <v>78687.0</v>
       </c>
       <c r="E34" t="n" s="7">
-        <v>2.0981869218534874</v>
+        <v>2.0984190453789417</v>
       </c>
       <c r="F34" t="n" s="6">
-        <v>90795.0</v>
+        <v>90953.0</v>
       </c>
       <c r="G34" t="n" s="7">
-        <v>2.424960305113129</v>
+        <v>2.4255278182463544</v>
       </c>
       <c r="H34" t="n" s="6">
-        <v>9564.0</v>
+        <v>9577.0</v>
       </c>
       <c r="I34" t="n" s="6">
-        <v>3839.0</v>
+        <v>3848.0</v>
       </c>
       <c r="J34" t="n" s="6">
-        <v>2980.0</v>
+        <v>2985.0</v>
       </c>
     </row>
     <row r="35">
@@ -1572,31 +1572,31 @@
         <v>51</v>
       </c>
       <c r="B35" t="n" s="8">
-        <v>34656.0</v>
+        <v>34703.0</v>
       </c>
       <c r="C35" t="n" s="9">
-        <v>0.9255952897626586</v>
+        <v>0.9254570149044369</v>
       </c>
       <c r="D35" t="n" s="8">
-        <v>28772.0</v>
+        <v>28810.0</v>
       </c>
       <c r="E35" t="n" s="9">
-        <v>0.7684449352796403</v>
+        <v>0.7683029305649893</v>
       </c>
       <c r="F35" t="n" s="8">
-        <v>31287.0</v>
+        <v>31327.0</v>
       </c>
       <c r="G35" t="n" s="9">
-        <v>0.835615761507511</v>
+        <v>0.835426098778529</v>
       </c>
       <c r="H35" t="n" s="10">
-        <v>5098.0</v>
+        <v>5107.0</v>
       </c>
       <c r="I35" t="n" s="10">
-        <v>6035.0</v>
+        <v>6047.0</v>
       </c>
       <c r="J35" t="n" s="10">
-        <v>6967.0</v>
+        <v>6978.0</v>
       </c>
     </row>
     <row r="36">
@@ -1604,31 +1604,31 @@
         <v>52</v>
       </c>
       <c r="B36" t="n" s="6">
-        <v>59685.0</v>
+        <v>59765.0</v>
       </c>
       <c r="C36" t="n" s="7">
-        <v>1.5940718741194677</v>
+        <v>1.593808561097417</v>
       </c>
       <c r="D36" t="n" s="6">
-        <v>50865.0</v>
+        <v>50923.0</v>
       </c>
       <c r="E36" t="n" s="7">
-        <v>1.3585065908869354</v>
+        <v>1.358010764774764</v>
       </c>
       <c r="F36" t="n" s="6">
-        <v>34501.0</v>
+        <v>34553.0</v>
       </c>
       <c r="G36" t="n" s="7">
-        <v>0.9214555370527899</v>
+        <v>0.9214568260955249</v>
       </c>
       <c r="H36" t="n" s="6">
-        <v>7141.0</v>
+        <v>7153.0</v>
       </c>
       <c r="I36" t="n" s="6">
-        <v>7907.0</v>
+        <v>7919.0</v>
       </c>
       <c r="J36" t="n" s="6">
-        <v>4020.0</v>
+        <v>4028.0</v>
       </c>
     </row>
     <row r="37">
@@ -1636,31 +1636,31 @@
         <v>53</v>
       </c>
       <c r="B37" t="n" s="8">
-        <v>122479.0</v>
+        <v>122676.0</v>
       </c>
       <c r="C37" t="n" s="9">
-        <v>3.271179175174303</v>
+        <v>3.2715144154804108</v>
       </c>
       <c r="D37" t="n" s="8">
-        <v>49564.0</v>
+        <v>49650.0</v>
       </c>
       <c r="E37" t="n" s="9">
-        <v>1.323759376206037</v>
+        <v>1.3240624957497993</v>
       </c>
       <c r="F37" t="n" s="8">
-        <v>72069.0</v>
+        <v>72204.0</v>
       </c>
       <c r="G37" t="n" s="9">
-        <v>1.9248247615969831</v>
+        <v>1.9255308850577746</v>
       </c>
       <c r="H37" t="n" s="10">
-        <v>8317.0</v>
+        <v>8327.0</v>
       </c>
       <c r="I37" t="n" s="10">
-        <v>2964.0</v>
+        <v>2971.0</v>
       </c>
       <c r="J37" t="n" s="10">
-        <v>5510.0</v>
+        <v>5521.0</v>
       </c>
     </row>
     <row r="38">
@@ -1668,31 +1668,31 @@
         <v>54</v>
       </c>
       <c r="B38" t="n" s="6">
-        <v>59180.0</v>
+        <v>59269.0</v>
       </c>
       <c r="C38" t="n" s="7">
-        <v>1.5805842927098954</v>
+        <v>1.5805812701026156</v>
       </c>
       <c r="D38" t="n" s="6">
-        <v>23270.0</v>
+        <v>23307.0</v>
       </c>
       <c r="E38" t="n" s="7">
-        <v>0.6214970681202986</v>
+        <v>0.6215493371287125</v>
       </c>
       <c r="F38" t="n" s="6">
-        <v>29464.0</v>
+        <v>29502.0</v>
       </c>
       <c r="G38" t="n" s="7">
-        <v>0.7869269280230543</v>
+        <v>0.7867571349367689</v>
       </c>
       <c r="H38" t="n" s="6">
-        <v>10045.0</v>
+        <v>10062.0</v>
       </c>
       <c r="I38" t="n" s="6">
-        <v>2608.0</v>
+        <v>2614.0</v>
       </c>
       <c r="J38" t="n" s="6">
-        <v>3291.0</v>
+        <v>3296.0</v>
       </c>
     </row>
     <row r="39">
@@ -1700,31 +1700,31 @@
         <v>55</v>
       </c>
       <c r="B39" t="n" s="8">
-        <v>31265.0</v>
+        <v>31302.0</v>
       </c>
       <c r="C39" t="n" s="9">
-        <v>0.8350281837035296</v>
+        <v>0.8347594006437105</v>
       </c>
       <c r="D39" t="n" s="8">
-        <v>16062.0</v>
+        <v>16080.0</v>
       </c>
       <c r="E39" t="n" s="9">
-        <v>0.4289852130704012</v>
+        <v>0.4288202403153429</v>
       </c>
       <c r="F39" t="n" s="8">
-        <v>19903.0</v>
+        <v>19933.0</v>
       </c>
       <c r="G39" t="n" s="9">
-        <v>0.5315709560291492</v>
+        <v>0.5315717568535901</v>
       </c>
       <c r="H39" t="n" s="10">
-        <v>8644.0</v>
+        <v>8654.0</v>
       </c>
       <c r="I39" t="n" s="10">
-        <v>4017.0</v>
+        <v>4023.0</v>
       </c>
       <c r="J39" t="n" s="10">
-        <v>6491.0</v>
+        <v>6504.0</v>
       </c>
     </row>
     <row r="40">
@@ -1732,31 +1732,31 @@
         <v>56</v>
       </c>
       <c r="B40" t="n" s="6">
-        <v>24757.0</v>
+        <v>24780.0</v>
       </c>
       <c r="C40" t="n" s="7">
-        <v>0.6612119860530395</v>
+        <v>0.6608311912322261</v>
       </c>
       <c r="D40" t="n" s="6">
-        <v>20371.0</v>
+        <v>20395.0</v>
       </c>
       <c r="E40" t="n" s="7">
-        <v>0.5440703384047529</v>
+        <v>0.5438923383850385</v>
       </c>
       <c r="F40" t="n" s="6">
-        <v>17003.0</v>
+        <v>17024.0</v>
       </c>
       <c r="G40" t="n" s="7">
-        <v>0.45411751823160446</v>
+        <v>0.45399476188609433</v>
       </c>
       <c r="H40" t="n" s="6">
-        <v>8089.0</v>
+        <v>8101.0</v>
       </c>
       <c r="I40" t="n" s="6">
-        <v>6122.0</v>
+        <v>6134.0</v>
       </c>
       <c r="J40" t="n" s="6">
-        <v>5555.0</v>
+        <v>5565.0</v>
       </c>
     </row>
     <row r="41">
@@ -1764,31 +1764,31 @@
         <v>57</v>
       </c>
       <c r="B41" t="n" s="8">
-        <v>82736.0</v>
+        <v>82843.0</v>
       </c>
       <c r="C41" t="n" s="9">
-        <v>2.2097198722819518</v>
+        <v>2.209250943311191</v>
       </c>
       <c r="D41" t="n" s="8">
-        <v>14290.0</v>
+        <v>14306.0</v>
       </c>
       <c r="E41" t="n" s="9">
-        <v>0.38165849176790145</v>
+        <v>0.3815113406686129</v>
       </c>
       <c r="F41" t="n" s="8">
-        <v>24137.0</v>
+        <v>24173.0</v>
       </c>
       <c r="G41" t="n" s="9">
-        <v>0.6446529752135645</v>
+        <v>0.6446437605188298</v>
       </c>
       <c r="H41" t="n" s="10">
-        <v>11955.0</v>
+        <v>11975.0</v>
       </c>
       <c r="I41" t="n" s="10">
-        <v>1405.0</v>
+        <v>1407.0</v>
       </c>
       <c r="J41" t="n" s="10">
-        <v>1983.0</v>
+        <v>1987.0</v>
       </c>
     </row>
     <row r="42">
@@ -1796,31 +1796,31 @@
         <v>58</v>
       </c>
       <c r="B42" t="n" s="6">
-        <v>95375.0</v>
+        <v>95515.0</v>
       </c>
       <c r="C42" t="n" s="7">
-        <v>2.547283320669251</v>
+        <v>2.547186893888058</v>
       </c>
       <c r="D42" t="n" s="6">
-        <v>47150.0</v>
+        <v>47225.0</v>
       </c>
       <c r="E42" t="n" s="7">
-        <v>1.2592860662600807</v>
+        <v>1.2593927766723922</v>
       </c>
       <c r="F42" t="n" s="6">
-        <v>74633.0</v>
+        <v>74737.0</v>
       </c>
       <c r="G42" t="n" s="7">
-        <v>1.9933042838428123</v>
+        <v>1.9930807400775983</v>
       </c>
       <c r="H42" t="n" s="6">
-        <v>8303.0</v>
+        <v>8316.0</v>
       </c>
       <c r="I42" t="n" s="6">
-        <v>2757.0</v>
+        <v>2760.0</v>
       </c>
       <c r="J42" t="n" s="6">
-        <v>5709.0</v>
+        <v>5717.0</v>
       </c>
     </row>
     <row r="43">
@@ -1828,31 +1828,31 @@
         <v>59</v>
       </c>
       <c r="B43" t="n" s="8">
-        <v>25951.0</v>
+        <v>25986.0</v>
       </c>
       <c r="C43" t="n" s="9">
-        <v>0.6931014359600287</v>
+        <v>0.6929927092558769</v>
       </c>
       <c r="D43" t="n" s="8">
-        <v>22794.0</v>
+        <v>22829.0</v>
       </c>
       <c r="E43" t="n" s="9">
-        <v>0.6087840210887016</v>
+        <v>0.6088020687909802</v>
       </c>
       <c r="F43" t="n" s="8">
-        <v>41022.0</v>
+        <v>41087.0</v>
       </c>
       <c r="G43" t="n" s="9">
-        <v>1.095618939769269</v>
+        <v>1.0957050506117223</v>
       </c>
       <c r="H43" t="n" s="10">
-        <v>4391.0</v>
+        <v>4398.0</v>
       </c>
       <c r="I43" t="n" s="10">
-        <v>3857.0</v>
+        <v>3862.0</v>
       </c>
       <c r="J43" t="n" s="10">
-        <v>9775.0</v>
+        <v>9790.0</v>
       </c>
     </row>
     <row r="44">
@@ -1860,31 +1860,31 @@
         <v>60</v>
       </c>
       <c r="B44" t="n" s="6">
-        <v>47166.0</v>
+        <v>47240.0</v>
       </c>
       <c r="C44" t="n" s="7">
-        <v>1.2597133955720672</v>
+        <v>1.2597927955532835</v>
       </c>
       <c r="D44" t="n" s="6">
-        <v>54416.0</v>
+        <v>54497.0</v>
       </c>
       <c r="E44" t="n" s="7">
-        <v>1.4533469900659288</v>
+        <v>1.4533219301284352</v>
       </c>
       <c r="F44" t="n" s="6">
-        <v>60462.0</v>
+        <v>60551.0</v>
       </c>
       <c r="G44" t="n" s="7">
-        <v>1.6148240538328102</v>
+        <v>1.614769550456115</v>
       </c>
       <c r="H44" t="n" s="6">
-        <v>5084.0</v>
+        <v>5093.0</v>
       </c>
       <c r="I44" t="n" s="6">
-        <v>5749.0</v>
+        <v>5758.0</v>
       </c>
       <c r="J44" t="n" s="6">
-        <v>7890.0</v>
+        <v>7902.0</v>
       </c>
     </row>
     <row r="45">
@@ -1892,31 +1892,31 @@
         <v>61</v>
       </c>
       <c r="B45" t="n" s="8">
-        <v>81287.0</v>
+        <v>81398.0</v>
       </c>
       <c r="C45" t="n" s="9">
-        <v>2.1710198614651786</v>
+        <v>2.170715791118674</v>
       </c>
       <c r="D45" t="n" s="8">
-        <v>32128.0</v>
+        <v>32185.0</v>
       </c>
       <c r="E45" t="n" s="9">
-        <v>0.8580772584687989</v>
+        <v>0.8583071787655044</v>
       </c>
       <c r="F45" t="n" s="8">
-        <v>36839.0</v>
+        <v>36889.0</v>
       </c>
       <c r="G45" t="n" s="9">
-        <v>0.9838990327668103</v>
+        <v>0.9837530998129779</v>
       </c>
       <c r="H45" t="n" s="10">
-        <v>10477.0</v>
+        <v>10493.0</v>
       </c>
       <c r="I45" t="n" s="10">
-        <v>2174.0</v>
+        <v>2181.0</v>
       </c>
       <c r="J45" t="n" s="10">
-        <v>3176.0</v>
+        <v>3178.0</v>
       </c>
     </row>
     <row r="46">
@@ -1924,31 +1924,31 @@
         <v>62</v>
       </c>
       <c r="B46" t="n" s="6">
-        <v>72295.0</v>
+        <v>72389.0</v>
       </c>
       <c r="C46" t="n" s="7">
-        <v>1.9308607881287916</v>
+        <v>1.9304644512554325</v>
       </c>
       <c r="D46" t="n" s="6">
-        <v>63225.0</v>
+        <v>63313.0</v>
       </c>
       <c r="E46" t="n" s="7">
-        <v>1.6886184843964709</v>
+        <v>1.6884263603908771</v>
       </c>
       <c r="F46" t="n" s="6">
-        <v>17725.0</v>
+        <v>17759.0</v>
       </c>
       <c r="G46" t="n" s="7">
-        <v>0.47340075343499316</v>
+        <v>0.47359568704976207</v>
       </c>
       <c r="H46" t="n" s="6">
-        <v>8362.0</v>
+        <v>8374.0</v>
       </c>
       <c r="I46" t="n" s="6">
-        <v>6478.0</v>
+        <v>6488.0</v>
       </c>
       <c r="J46" t="n" s="6">
-        <v>1220.0</v>
+        <v>1223.0</v>
       </c>
     </row>
     <row r="47">
@@ -1956,31 +1956,31 @@
         <v>63</v>
       </c>
       <c r="B47" t="n" s="8">
-        <v>30006.0</v>
+        <v>30049.0</v>
       </c>
       <c r="C47" t="n" s="9">
-        <v>0.8014027084665954</v>
+        <v>0.8013444901266006</v>
       </c>
       <c r="D47" t="n" s="8">
-        <v>42534.0</v>
+        <v>42593.0</v>
       </c>
       <c r="E47" t="n" s="9">
-        <v>1.1360015597519888</v>
+        <v>1.1358669462531965</v>
       </c>
       <c r="F47" t="n" s="8">
-        <v>25335.0</v>
+        <v>25376.0</v>
       </c>
       <c r="G47" t="n" s="9">
-        <v>0.6766492574485502</v>
+        <v>0.6767252747663023</v>
       </c>
       <c r="H47" t="n" s="10">
-        <v>5247.0</v>
+        <v>5257.0</v>
       </c>
       <c r="I47" t="n" s="10">
-        <v>8232.0</v>
+        <v>8244.0</v>
       </c>
       <c r="J47" t="n" s="10">
-        <v>3139.0</v>
+        <v>3144.0</v>
       </c>
     </row>
     <row r="48">
@@ -1988,31 +1988,31 @@
         <v>64</v>
       </c>
       <c r="B48" t="n" s="6">
-        <v>31027.0</v>
+        <v>31074.0</v>
       </c>
       <c r="C48" t="n" s="7">
-        <v>0.8286716601877311</v>
+        <v>0.8286791136541645</v>
       </c>
       <c r="D48" t="n" s="6">
-        <v>52473.0</v>
+        <v>52550.0</v>
       </c>
       <c r="E48" t="n" s="7">
-        <v>1.401453186741574</v>
+        <v>1.4013994793887605</v>
       </c>
       <c r="F48" t="n" s="6">
-        <v>14832.0</v>
+        <v>14853.0</v>
       </c>
       <c r="G48" t="n" s="7">
-        <v>0.39613427221144254</v>
+        <v>0.3960986958584445</v>
       </c>
       <c r="H48" t="n" s="6">
-        <v>5464.0</v>
+        <v>5470.0</v>
       </c>
       <c r="I48" t="n" s="6">
-        <v>10135.0</v>
+        <v>10152.0</v>
       </c>
       <c r="J48" t="n" s="6">
-        <v>2809.0</v>
+        <v>2813.0</v>
       </c>
     </row>
     <row r="49">
@@ -2020,31 +2020,31 @@
         <v>65</v>
       </c>
       <c r="B49" t="n" s="8">
-        <v>74758.0</v>
+        <v>74864.0</v>
       </c>
       <c r="C49" t="n" s="9">
-        <v>1.9966427940927063</v>
+        <v>1.9964675666024772</v>
       </c>
       <c r="D49" t="n" s="8">
-        <v>62348.0</v>
+        <v>62441.0</v>
       </c>
       <c r="E49" t="n" s="9">
-        <v>1.6651954964832134</v>
+        <v>1.6651719294484033</v>
       </c>
       <c r="F49" t="n" s="8">
-        <v>48543.0</v>
+        <v>48610.0</v>
       </c>
       <c r="G49" t="n" s="9">
-        <v>1.2964904244849011</v>
+        <v>1.2963278533413443</v>
       </c>
       <c r="H49" t="n" s="10">
-        <v>7600.0</v>
+        <v>7613.0</v>
       </c>
       <c r="I49" t="n" s="10">
-        <v>5745.0</v>
+        <v>5754.0</v>
       </c>
       <c r="J49" t="n" s="10">
-        <v>2375.0</v>
+        <v>2380.0</v>
       </c>
     </row>
     <row r="50">
@@ -2055,28 +2055,28 @@
         <v>1.0</v>
       </c>
       <c r="C50" t="n" s="7">
-        <v>2.6708081999153353E-5</v>
+        <v>2.6667925392745204E-5</v>
       </c>
       <c r="D50" t="n" s="6">
-        <v>93143.0</v>
+        <v>93276.0</v>
       </c>
       <c r="E50" t="n" s="7">
-        <v>2.4876708816471407</v>
+        <v>2.4874774089337017</v>
       </c>
       <c r="F50" t="n" s="6">
-        <v>93995.0</v>
+        <v>94126.0</v>
       </c>
       <c r="G50" t="n" s="7">
-        <v>2.5104261675104196</v>
+        <v>2.5101451455175354</v>
       </c>
       <c r="H50" t="n" s="6">
         <v>106.0</v>
       </c>
       <c r="I50" t="n" s="6">
-        <v>7098.0</v>
+        <v>7108.0</v>
       </c>
       <c r="J50" t="n" s="6">
-        <v>7125.0</v>
+        <v>7135.0</v>
       </c>
     </row>
     <row r="51">
@@ -2084,31 +2084,31 @@
         <v>67</v>
       </c>
       <c r="B51" t="n" s="8">
-        <v>28350.0</v>
+        <v>28393.0</v>
       </c>
       <c r="C51" t="n" s="9">
-        <v>0.7571741246759977</v>
+        <v>0.7571824056762145</v>
       </c>
       <c r="D51" t="n" s="8">
-        <v>55004.0</v>
+        <v>55076.0</v>
       </c>
       <c r="E51" t="n" s="9">
-        <v>1.469051342281431</v>
+        <v>1.468762658930835</v>
       </c>
       <c r="F51" t="n" s="8">
-        <v>66991.0</v>
+        <v>67094.0</v>
       </c>
       <c r="G51" t="n" s="9">
-        <v>1.7892011212052823</v>
+        <v>1.7892577863008468</v>
       </c>
       <c r="H51" t="n" s="10">
-        <v>1124.0</v>
+        <v>1126.0</v>
       </c>
       <c r="I51" t="n" s="10">
-        <v>5814.0</v>
+        <v>5822.0</v>
       </c>
       <c r="J51" t="n" s="10">
-        <v>8625.0</v>
+        <v>8640.0</v>
       </c>
     </row>
     <row r="52">
@@ -2122,25 +2122,25 @@
         <v>0.0</v>
       </c>
       <c r="D52" t="n" s="6">
-        <v>102738.0</v>
+        <v>102874.0</v>
       </c>
       <c r="E52" t="n" s="7">
-        <v>2.743934928429017</v>
+        <v>2.74343615685327</v>
       </c>
       <c r="F52" t="n" s="6">
-        <v>56957.0</v>
+        <v>57046.0</v>
       </c>
       <c r="G52" t="n" s="7">
-        <v>1.5212122264257775</v>
+        <v>1.5212984719545428</v>
       </c>
       <c r="H52" t="n" s="6">
-        <v>228.0</v>
+        <v>229.0</v>
       </c>
       <c r="I52" t="n" s="6">
-        <v>10780.0</v>
+        <v>10797.0</v>
       </c>
       <c r="J52" t="n" s="6">
-        <v>3145.0</v>
+        <v>3151.0</v>
       </c>
     </row>
     <row r="53">
@@ -2148,31 +2148,31 @@
         <v>69</v>
       </c>
       <c r="B53" t="n" s="8">
-        <v>107222.0</v>
+        <v>107385.0</v>
       </c>
       <c r="C53" t="n" s="9">
-        <v>2.863693968113221</v>
+        <v>2.8637351682999435</v>
       </c>
       <c r="D53" t="n" s="8">
-        <v>91162.0</v>
+        <v>91317.0</v>
       </c>
       <c r="E53" t="n" s="9">
-        <v>2.434762171206818</v>
+        <v>2.435234943089314</v>
       </c>
       <c r="F53" t="n" s="8">
-        <v>126558.0</v>
+        <v>126751.0</v>
       </c>
       <c r="G53" t="n" s="9">
-        <v>3.38012144164885</v>
+        <v>3.3801862114558476</v>
       </c>
       <c r="H53" t="n" s="10">
-        <v>3524.0</v>
+        <v>3527.0</v>
       </c>
       <c r="I53" t="n" s="10">
-        <v>3718.0</v>
+        <v>3723.0</v>
       </c>
       <c r="J53" t="n" s="10">
-        <v>7546.0</v>
+        <v>7559.0</v>
       </c>
     </row>
     <row r="54">
@@ -2180,31 +2180,31 @@
         <v>70</v>
       </c>
       <c r="B54" t="n" s="6">
-        <v>53843.0</v>
+        <v>53940.0</v>
       </c>
       <c r="C54" t="n" s="7">
-        <v>1.438043259080414</v>
+        <v>1.4384678956846764</v>
       </c>
       <c r="D54" t="n" s="6">
-        <v>57677.0</v>
+        <v>57777.0</v>
       </c>
       <c r="E54" t="n" s="7">
-        <v>1.540442045465168</v>
+        <v>1.5407927254166396</v>
       </c>
       <c r="F54" t="n" s="6">
-        <v>91001.0</v>
+        <v>91139.0</v>
       </c>
       <c r="G54" t="n" s="7">
-        <v>2.4304621700049545</v>
+        <v>2.4304880523694052</v>
       </c>
       <c r="H54" t="n" s="6">
-        <v>4462.0</v>
+        <v>4471.0</v>
       </c>
       <c r="I54" t="n" s="6">
-        <v>3787.0</v>
+        <v>3794.0</v>
       </c>
       <c r="J54" t="n" s="6">
-        <v>8152.0</v>
+        <v>8163.0</v>
       </c>
     </row>
     <row r="55">
@@ -2212,31 +2212,31 @@
         <v>71</v>
       </c>
       <c r="B55" t="n" s="8">
-        <v>48337.0</v>
+        <v>48426.0</v>
       </c>
       <c r="C55" t="n" s="9">
-        <v>1.2909885595930757</v>
+        <v>1.2914209550690792</v>
       </c>
       <c r="D55" t="n" s="8">
-        <v>41044.0</v>
+        <v>41118.0</v>
       </c>
       <c r="E55" t="n" s="9">
-        <v>1.0962065175732503</v>
+        <v>1.0965317562988974</v>
       </c>
       <c r="F55" t="n" s="8">
-        <v>72139.0</v>
+        <v>72261.0</v>
       </c>
       <c r="G55" t="n" s="9">
-        <v>1.926694327336924</v>
+        <v>1.927050956805161</v>
       </c>
       <c r="H55" t="n" s="10">
-        <v>3681.0</v>
+        <v>3686.0</v>
       </c>
       <c r="I55" t="n" s="10">
-        <v>3792.0</v>
+        <v>3798.0</v>
       </c>
       <c r="J55" t="n" s="10">
-        <v>9132.0</v>
+        <v>9147.0</v>
       </c>
     </row>
     <row r="56">
@@ -2244,31 +2244,31 @@
         <v>72</v>
       </c>
       <c r="B56" t="n" s="6">
-        <v>29398.0</v>
+        <v>29451.0</v>
       </c>
       <c r="C56" t="n" s="7">
-        <v>0.7851641946111102</v>
+        <v>0.785397070741739</v>
       </c>
       <c r="D56" t="n" s="6">
-        <v>44878.0</v>
+        <v>44948.0</v>
       </c>
       <c r="E56" t="n" s="7">
-        <v>1.1986053039580042</v>
+        <v>1.1986699105531116</v>
       </c>
       <c r="F56" t="n" s="6">
-        <v>59002.0</v>
+        <v>59091.0</v>
       </c>
       <c r="G56" t="n" s="7">
-        <v>1.575830254114046</v>
+        <v>1.5758343793827068</v>
       </c>
       <c r="H56" t="n" s="6">
-        <v>2547.0</v>
+        <v>2550.0</v>
       </c>
       <c r="I56" t="n" s="6">
-        <v>5815.0</v>
+        <v>5823.0</v>
       </c>
       <c r="J56" t="n" s="6">
-        <v>8235.0</v>
+        <v>8251.0</v>
       </c>
     </row>
     <row r="57">
@@ -2276,31 +2276,31 @@
         <v>73</v>
       </c>
       <c r="B57" t="n" s="8">
-        <v>79380.0</v>
+        <v>79511.0</v>
       </c>
       <c r="C57" t="n" s="9">
-        <v>2.1200875490927933</v>
+        <v>2.120393415902564</v>
       </c>
       <c r="D57" t="n" s="8">
-        <v>56767.0</v>
+        <v>56870.0</v>
       </c>
       <c r="E57" t="n" s="9">
-        <v>1.5161376908459385</v>
+        <v>1.51660491708542</v>
       </c>
       <c r="F57" t="n" s="8">
-        <v>100394.0</v>
+        <v>100563.0</v>
       </c>
       <c r="G57" t="n" s="9">
-        <v>2.681331184223002</v>
+        <v>2.681806581270636</v>
       </c>
       <c r="H57" t="n" s="10">
-        <v>4754.0</v>
+        <v>4762.0</v>
       </c>
       <c r="I57" t="n" s="10">
-        <v>2685.0</v>
+        <v>2690.0</v>
       </c>
       <c r="J57" t="n" s="10">
-        <v>7904.0</v>
+        <v>7916.0</v>
       </c>
     </row>
     <row r="58">
@@ -2314,25 +2314,25 @@
         <v>0.0</v>
       </c>
       <c r="D58" t="n" s="6">
-        <v>81925.0</v>
+        <v>82069.0</v>
       </c>
       <c r="E58" t="n" s="7">
-        <v>2.1880596177806386</v>
+        <v>2.188609969057206</v>
       </c>
       <c r="F58" t="n" s="6">
-        <v>116074.0</v>
+        <v>116251.0</v>
       </c>
       <c r="G58" t="n" s="7">
-        <v>3.1001139099697266</v>
+        <v>3.1001729948320227</v>
       </c>
       <c r="H58" t="n" s="6">
-        <v>654.0</v>
+        <v>655.0</v>
       </c>
       <c r="I58" t="n" s="6">
-        <v>7207.0</v>
+        <v>7221.0</v>
       </c>
       <c r="J58" t="n" s="6">
-        <v>7188.0</v>
+        <v>7197.0</v>
       </c>
     </row>
     <row r="59">
@@ -2340,31 +2340,31 @@
         <v>75</v>
       </c>
       <c r="B59" t="n" s="8">
-        <v>12040.0</v>
+        <v>12057.0</v>
       </c>
       <c r="C59" t="n" s="9">
-        <v>0.32156530726980637</v>
+        <v>0.3215351764603289</v>
       </c>
       <c r="D59" t="n" s="8">
-        <v>32624.0</v>
+        <v>32667.0</v>
       </c>
       <c r="E59" t="n" s="9">
-        <v>0.871324467140379</v>
+        <v>0.8711611188048076</v>
       </c>
       <c r="F59" t="n" s="8">
-        <v>67234.0</v>
+        <v>67323.0</v>
       </c>
       <c r="G59" t="n" s="9">
-        <v>1.7956911851310768</v>
+        <v>1.7953647412157854</v>
       </c>
       <c r="H59" t="n" s="10">
-        <v>1628.0</v>
+        <v>1630.0</v>
       </c>
       <c r="I59" t="n" s="10">
-        <v>4535.0</v>
+        <v>4544.0</v>
       </c>
       <c r="J59" t="n" s="10">
-        <v>10656.0</v>
+        <v>10672.0</v>
       </c>
     </row>
     <row r="60">
@@ -2372,31 +2372,31 @@
         <v>76</v>
       </c>
       <c r="B60" t="n" s="6">
-        <v>67214.0</v>
+        <v>67328.0</v>
       </c>
       <c r="C60" t="n" s="7">
-        <v>1.7951570234910934</v>
+        <v>1.795498080842749</v>
       </c>
       <c r="D60" t="n" s="6">
-        <v>75259.0</v>
+        <v>75375.0</v>
       </c>
       <c r="E60" t="n" s="7">
-        <v>2.0100235431742823</v>
+        <v>2.0100948764781696</v>
       </c>
       <c r="F60" t="n" s="6">
-        <v>84329.0</v>
+        <v>84449.0</v>
       </c>
       <c r="G60" t="n" s="7">
-        <v>2.252265846906603</v>
+        <v>2.25207963149194</v>
       </c>
       <c r="H60" t="n" s="6">
-        <v>3567.0</v>
+        <v>3574.0</v>
       </c>
       <c r="I60" t="n" s="6">
-        <v>6307.0</v>
+        <v>6315.0</v>
       </c>
       <c r="J60" t="n" s="6">
-        <v>5839.0</v>
+        <v>5847.0</v>
       </c>
     </row>
     <row r="61">
@@ -2404,31 +2404,31 @@
         <v>77</v>
       </c>
       <c r="B61" t="n" s="8">
-        <v>29877.0</v>
+        <v>29918.0</v>
       </c>
       <c r="C61" t="n" s="9">
-        <v>0.7979573658887048</v>
+        <v>0.7978509919001511</v>
       </c>
       <c r="D61" t="n" s="8">
-        <v>37011.0</v>
+        <v>37063.0</v>
       </c>
       <c r="E61" t="n" s="9">
-        <v>0.9884928228706649</v>
+        <v>0.9883933188313154</v>
       </c>
       <c r="F61" t="n" s="8">
-        <v>79711.0</v>
+        <v>79824.0</v>
       </c>
       <c r="G61" t="n" s="9">
-        <v>2.128927924234513</v>
+        <v>2.1287404765504934</v>
       </c>
       <c r="H61" t="n" s="10">
-        <v>2771.0</v>
+        <v>2775.0</v>
       </c>
       <c r="I61" t="n" s="10">
-        <v>3617.0</v>
+        <v>3624.0</v>
       </c>
       <c r="J61" t="n" s="10">
-        <v>10322.0</v>
+        <v>10338.0</v>
       </c>
     </row>
     <row r="62">
@@ -2436,31 +2436,31 @@
         <v>78</v>
       </c>
       <c r="B62" t="n" s="6">
-        <v>118698.0</v>
+        <v>118863.0</v>
       </c>
       <c r="C62" t="n" s="7">
-        <v>3.170195917135505</v>
+        <v>3.169829615957873</v>
       </c>
       <c r="D62" t="n" s="6">
-        <v>81323.0</v>
+        <v>81431.0</v>
       </c>
       <c r="E62" t="n" s="7">
-        <v>2.171981352417148</v>
+        <v>2.1715958326566347</v>
       </c>
       <c r="F62" t="n" s="6">
-        <v>57863.0</v>
+        <v>57939.0</v>
       </c>
       <c r="G62" t="n" s="7">
-        <v>1.5454097487170104</v>
+        <v>1.5451129293302643</v>
       </c>
       <c r="H62" t="n" s="6">
-        <v>9088.0</v>
+        <v>9104.0</v>
       </c>
       <c r="I62" t="n" s="6">
-        <v>3918.0</v>
+        <v>3924.0</v>
       </c>
       <c r="J62" t="n" s="6">
-        <v>1817.0</v>
+        <v>1818.0</v>
       </c>
     </row>
     <row r="63">
@@ -2468,31 +2468,31 @@
         <v>79</v>
       </c>
       <c r="B63" t="n" s="8">
-        <v>79996.0</v>
+        <v>80143.0</v>
       </c>
       <c r="C63" t="n" s="9">
-        <v>2.136539727604272</v>
+        <v>2.137247544750779</v>
       </c>
       <c r="D63" t="n" s="8">
-        <v>118352.0</v>
+        <v>118548.0</v>
       </c>
       <c r="E63" t="n" s="9">
-        <v>3.160954920763798</v>
+        <v>3.161429219459159</v>
       </c>
       <c r="F63" t="n" s="8">
-        <v>92497.0</v>
+        <v>92650.0</v>
       </c>
       <c r="G63" t="n" s="9">
-        <v>2.4704174606756877</v>
+        <v>2.4707832876378433</v>
       </c>
       <c r="H63" t="n" s="10">
-        <v>2934.0</v>
+        <v>2938.0</v>
       </c>
       <c r="I63" t="n" s="10">
-        <v>8233.0</v>
+        <v>8247.0</v>
       </c>
       <c r="J63" t="n" s="10">
-        <v>3760.0</v>
+        <v>3764.0</v>
       </c>
     </row>
     <row r="64">
@@ -2500,31 +2500,31 @@
         <v>80</v>
       </c>
       <c r="B64" t="n" s="6">
-        <v>84795.0</v>
+        <v>84925.0</v>
       </c>
       <c r="C64" t="n" s="7">
-        <v>2.2647118131182085</v>
+        <v>2.2647735639788866</v>
       </c>
       <c r="D64" t="n" s="6">
-        <v>124716.0</v>
+        <v>124882.0</v>
       </c>
       <c r="E64" t="n" s="7">
-        <v>3.3309251546064096</v>
+        <v>3.3303438588968066</v>
       </c>
       <c r="F64" t="n" s="6">
-        <v>51668.0</v>
+        <v>51751.0</v>
       </c>
       <c r="G64" t="n" s="7">
-        <v>1.3799531807322554</v>
+        <v>1.380091806999957</v>
       </c>
       <c r="H64" t="n" s="6">
-        <v>4433.0</v>
+        <v>4442.0</v>
       </c>
       <c r="I64" t="n" s="6">
-        <v>8770.0</v>
+        <v>8782.0</v>
       </c>
       <c r="J64" t="n" s="6">
-        <v>2118.0</v>
+        <v>2124.0</v>
       </c>
     </row>
     <row r="65">
@@ -2532,31 +2532,31 @@
         <v>81</v>
       </c>
       <c r="B65" t="n" s="8">
-        <v>142767.0</v>
+        <v>142973.0</v>
       </c>
       <c r="C65" t="n" s="9">
-        <v>3.8130327427731268</v>
+        <v>3.81279329717696</v>
       </c>
       <c r="D65" t="n" s="8">
-        <v>129338.0</v>
+        <v>129534.0</v>
       </c>
       <c r="E65" t="n" s="9">
-        <v>3.4543699096064966</v>
+        <v>3.454403047823857</v>
       </c>
       <c r="F65" t="n" s="8">
-        <v>184324.0</v>
+        <v>184592.0</v>
       </c>
       <c r="G65" t="n" s="9">
-        <v>4.922940506411943</v>
+        <v>4.9226856840976225</v>
       </c>
       <c r="H65" t="n" s="10">
-        <v>2727.0</v>
+        <v>2730.0</v>
       </c>
       <c r="I65" t="n" s="10">
-        <v>3297.0</v>
+        <v>3303.0</v>
       </c>
       <c r="J65" t="n" s="10">
-        <v>9048.0</v>
+        <v>9064.0</v>
       </c>
     </row>
     <row r="67">
@@ -2564,31 +2564,31 @@
         <v>82</v>
       </c>
       <c r="B67" t="n" s="8">
-        <v>3744185.0</v>
+        <v>3749823.0</v>
       </c>
       <c r="C67" t="n" s="9">
-        <v>100.00000000000003</v>
+        <v>100.00000000000001</v>
       </c>
       <c r="D67" t="n" s="8">
-        <v>3744185.0</v>
+        <v>3749823.0</v>
       </c>
       <c r="E67" t="n" s="9">
-        <v>99.99999999999999</v>
+        <v>99.99999999999997</v>
       </c>
       <c r="F67" t="n" s="8">
-        <v>3744185.0</v>
+        <v>3749823.0</v>
       </c>
       <c r="G67" t="n" s="9">
-        <v>99.99999999999999</v>
+        <v>99.99999999999997</v>
       </c>
       <c r="H67" t="n" s="8">
-        <v>8.2041791E7</v>
+        <v>8.2339763E7</v>
       </c>
       <c r="I67" t="n" s="8">
-        <v>8.1454672E7</v>
+        <v>8.1751894E7</v>
       </c>
       <c r="J67" t="n" s="8">
-        <v>8.1469366E7</v>
+        <v>8.1766019E7</v>
       </c>
     </row>
     <row r="68"/>
@@ -2597,16 +2597,16 @@
         <v>83</v>
       </c>
       <c r="B71" t="n" s="15">
-        <v>588314.0</v>
+        <v>589176.0</v>
       </c>
       <c r="C71" t="n" s="16">
-        <v>10.468932229913136</v>
+        <v>10.468507910335319</v>
       </c>
       <c r="D71" t="n" s="15">
-        <v>593013.0</v>
+        <v>593870.0</v>
       </c>
       <c r="E71" t="n" s="16">
-        <v>10.552550013185948</v>
+        <v>10.551911131327202</v>
       </c>
     </row>
     <row r="72">
@@ -2614,16 +2614,16 @@
         <v>84</v>
       </c>
       <c r="B72" t="n" s="13">
-        <v>245545.0</v>
+        <v>245918.0</v>
       </c>
       <c r="C72" t="n" s="14">
-        <v>4.369425110390066</v>
+        <v>4.369483020852582</v>
       </c>
       <c r="D72" t="n" s="13">
-        <v>243704.0</v>
+        <v>244051.0</v>
       </c>
       <c r="E72" t="n" s="14">
-        <v>4.336664876509399</v>
+        <v>4.336310073772939</v>
       </c>
     </row>
     <row r="73">
@@ -2631,16 +2631,16 @@
         <v>85</v>
       </c>
       <c r="B73" t="n" s="15">
-        <v>321474.0</v>
+        <v>321930.0</v>
       </c>
       <c r="C73" t="n" s="16">
-        <v>5.72056677162042</v>
+        <v>5.72006794501855</v>
       </c>
       <c r="D73" t="n" s="15">
-        <v>329228.0</v>
+        <v>329671.0</v>
       </c>
       <c r="E73" t="n" s="16">
-        <v>5.858547680643062</v>
+        <v>5.857610410655144</v>
       </c>
     </row>
     <row r="74">
@@ -2648,16 +2648,16 @@
         <v>86</v>
       </c>
       <c r="B74" t="n" s="13">
-        <v>547173.0</v>
+        <v>548028.0</v>
       </c>
       <c r="C74" t="n" s="14">
-        <v>9.73683620488083</v>
+        <v>9.73738823897315</v>
       </c>
       <c r="D74" t="n" s="13">
-        <v>537804.0</v>
+        <v>538709.0</v>
       </c>
       <c r="E74" t="n" s="14">
-        <v>9.57011668764674</v>
+        <v>9.571807792355475</v>
       </c>
     </row>
     <row r="75">
@@ -2665,16 +2665,16 @@
         <v>87</v>
       </c>
       <c r="B75" t="n" s="15">
-        <v>291946.0</v>
+        <v>292409.0</v>
       </c>
       <c r="C75" t="n" s="16">
-        <v>5.195121803652846</v>
+        <v>5.1955373768674225</v>
       </c>
       <c r="D75" t="n" s="15">
-        <v>297033.0</v>
+        <v>297504.0</v>
       </c>
       <c r="E75" t="n" s="16">
-        <v>5.2856439708179455</v>
+        <v>5.286065585421671</v>
       </c>
     </row>
     <row r="76">
@@ -2682,16 +2682,16 @@
         <v>88</v>
       </c>
       <c r="B76" t="n" s="13">
-        <v>208269.0</v>
+        <v>208576.0</v>
       </c>
       <c r="C76" t="n" s="14">
-        <v>3.706106002222927</v>
+        <v>3.705988543162144</v>
       </c>
       <c r="D76" t="n" s="13">
-        <v>208774.0</v>
+        <v>209110.0</v>
       </c>
       <c r="E76" t="n" s="14">
-        <v>3.7150923781652065</v>
+        <v>3.7154766812127757</v>
       </c>
     </row>
     <row r="77">
@@ -2699,16 +2699,16 @@
         <v>89</v>
       </c>
       <c r="B77" t="n" s="15">
-        <v>182063.0</v>
+        <v>182334.0</v>
       </c>
       <c r="C77" t="n" s="16">
-        <v>3.23977537263209</v>
+        <v>3.239719406973604</v>
       </c>
       <c r="D77" t="n" s="15">
-        <v>182602.0</v>
+        <v>182859.0</v>
       </c>
       <c r="E77" t="n" s="16">
-        <v>3.2493667719051365</v>
+        <v>3.2490476325851803</v>
       </c>
     </row>
     <row r="78">
@@ -2716,16 +2716,16 @@
         <v>90</v>
       </c>
       <c r="B78" t="n" s="13">
-        <v>314218.0</v>
+        <v>314708.0</v>
       </c>
       <c r="C78" t="n" s="14">
-        <v>5.591447674913135</v>
+        <v>5.591747096700829</v>
       </c>
       <c r="D78" t="n" s="13">
-        <v>317688.0</v>
+        <v>318167.0</v>
       </c>
       <c r="E78" t="n" s="14">
-        <v>5.653195644259093</v>
+        <v>5.653206777444528</v>
       </c>
     </row>
     <row r="79">
@@ -2733,16 +2733,16 @@
         <v>91</v>
       </c>
       <c r="B79" t="n" s="15">
-        <v>407213.0</v>
+        <v>407820.0</v>
       </c>
       <c r="C79" t="n" s="16">
-        <v>7.246275458580992</v>
+        <v>7.2461656550724225</v>
       </c>
       <c r="D79" t="n" s="15">
-        <v>394116.0</v>
+        <v>394716.0</v>
       </c>
       <c r="E79" t="n" s="16">
-        <v>7.013216912608651</v>
+        <v>7.013333143807479</v>
       </c>
     </row>
     <row r="80">
@@ -2750,16 +2750,16 @@
         <v>92</v>
       </c>
       <c r="B80" t="n" s="13">
-        <v>184075.0</v>
+        <v>184308.0</v>
       </c>
       <c r="C80" t="n" s="14">
-        <v>3.2755785179704384</v>
+        <v>3.27479353527313</v>
       </c>
       <c r="D80" t="n" s="13">
-        <v>178363.0</v>
+        <v>178606.0</v>
       </c>
       <c r="E80" t="n" s="14">
-        <v>3.173934598401528</v>
+        <v>3.1734801211070205</v>
       </c>
     </row>
     <row r="81">
@@ -2767,16 +2767,16 @@
         <v>93</v>
       </c>
       <c r="B81" t="n" s="15">
-        <v>313137.0</v>
+        <v>313598.0</v>
       </c>
       <c r="C81" t="n" s="16">
-        <v>5.572211491955503</v>
+        <v>5.572024562550639</v>
       </c>
       <c r="D81" t="n" s="15">
-        <v>306086.0</v>
+        <v>306541.0</v>
       </c>
       <c r="E81" t="n" s="16">
-        <v>5.446740330036668</v>
+        <v>5.44663544228227</v>
       </c>
     </row>
     <row r="82">
@@ -2784,16 +2784,16 @@
         <v>94</v>
       </c>
       <c r="B82" t="n" s="13">
-        <v>262349.0</v>
+        <v>262719.0</v>
       </c>
       <c r="C82" t="n" s="14">
-        <v>4.668448994219892</v>
+        <v>4.668004008471806</v>
       </c>
       <c r="D82" t="n" s="13">
-        <v>272752.0</v>
+        <v>273152.0</v>
       </c>
       <c r="E82" t="n" s="14">
-        <v>4.853568338630847</v>
+        <v>4.853378061434806</v>
       </c>
     </row>
     <row r="83">
@@ -2801,16 +2801,16 @@
         <v>95</v>
       </c>
       <c r="B83" t="n" s="15">
-        <v>416276.0</v>
+        <v>416896.0</v>
       </c>
       <c r="C83" t="n" s="16">
-        <v>7.4075497658381755</v>
+        <v>7.407428465835595</v>
       </c>
       <c r="D83" t="n" s="15">
-        <v>410333.0</v>
+        <v>410937.0</v>
       </c>
       <c r="E83" t="n" s="16">
-        <v>7.301795246580818</v>
+        <v>7.30154866313201</v>
       </c>
     </row>
     <row r="84">
@@ -2818,16 +2818,16 @@
         <v>96</v>
       </c>
       <c r="B84" t="n" s="13">
-        <v>368208.0</v>
+        <v>368838.0</v>
       </c>
       <c r="C84" t="n" s="14">
-        <v>6.5521891345639505</v>
+        <v>6.553531577376299</v>
       </c>
       <c r="D84" t="n" s="13">
-        <v>365652.0</v>
+        <v>366257.0</v>
       </c>
       <c r="E84" t="n" s="14">
-        <v>6.506705615933325</v>
+        <v>6.507672243464911</v>
       </c>
     </row>
     <row r="85">
@@ -2835,16 +2835,16 @@
         <v>97</v>
       </c>
       <c r="B85" t="n" s="15">
-        <v>334643.0</v>
+        <v>335153.0</v>
       </c>
       <c r="C85" t="n" s="16">
-        <v>5.95490654346968</v>
+        <v>5.955014854088783</v>
       </c>
       <c r="D85" t="n" s="15">
-        <v>350848.0</v>
+        <v>351368.0</v>
       </c>
       <c r="E85" t="n" s="16">
-        <v>6.243271339795695</v>
+        <v>6.243123765120609</v>
       </c>
     </row>
     <row r="86">
@@ -2852,16 +2852,16 @@
         <v>98</v>
       </c>
       <c r="B86" t="n" s="13">
-        <v>634715.0</v>
+        <v>635669.0</v>
       </c>
       <c r="C86" t="n" s="14">
-        <v>11.294628923175917</v>
+        <v>11.294597802447727</v>
       </c>
       <c r="D86" t="n" s="13">
-        <v>631622.0</v>
+        <v>632562.0</v>
       </c>
       <c r="E86" t="n" s="14">
-        <v>11.239589594879936</v>
+        <v>11.239392474875979</v>
       </c>
     </row>
     <row r="88">
@@ -2869,16 +2869,16 @@
         <v>82</v>
       </c>
       <c r="B88" t="n" s="15">
-        <v>5619618.0</v>
+        <v>5628080.0</v>
       </c>
       <c r="C88" t="n" s="16">
-        <v>99.99999999999997</v>
+        <v>100.00000000000001</v>
       </c>
       <c r="D88" t="n" s="15">
-        <v>5619618.0</v>
+        <v>5628080.0</v>
       </c>
       <c r="E88" t="n" s="16">
-        <v>100.0</v>
+        <v>100.00000000000001</v>
       </c>
     </row>
   </sheetData>
